--- a/correcoes/grades.xlsx
+++ b/correcoes/grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="algoritmos" sheetId="1" state="visible" r:id="rId2"/>
@@ -142,6 +142,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -208,7 +209,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -218,6 +219,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -244,10 +249,10 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.21"/>
   </cols>
   <sheetData>
@@ -269,13 +274,16 @@
       <c r="A2" s="1" t="n">
         <v>180033646</v>
       </c>
-      <c r="B2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="b">
+      <c r="B2" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -283,10 +291,12 @@
       <c r="A3" s="1" t="n">
         <v>160049733</v>
       </c>
-      <c r="B3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="b">
+      <c r="B3" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -294,10 +304,12 @@
       <c r="A4" s="1" t="n">
         <v>150058462</v>
       </c>
-      <c r="B4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="b">
+      <c r="B4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -305,13 +317,16 @@
       <c r="A5" s="1" t="n">
         <v>180052845</v>
       </c>
-      <c r="B5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="b">
+      <c r="B5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -319,13 +334,16 @@
       <c r="A6" s="1" t="n">
         <v>180017659</v>
       </c>
-      <c r="B6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="b">
+      <c r="B6" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -333,13 +351,16 @@
       <c r="A7" s="1" t="n">
         <v>180020251</v>
       </c>
-      <c r="B7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="b">
+      <c r="B7" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -347,10 +368,12 @@
       <c r="A8" s="1" t="n">
         <v>190106565</v>
       </c>
-      <c r="B8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="b">
+      <c r="B8" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -358,10 +381,12 @@
       <c r="A9" s="1" t="n">
         <v>180020471</v>
       </c>
-      <c r="B9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="b">
+      <c r="B9" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -369,10 +394,12 @@
       <c r="A10" s="1" t="n">
         <v>150062567</v>
       </c>
-      <c r="B10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="b">
+      <c r="B10" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -380,13 +407,16 @@
       <c r="A11" s="1" t="n">
         <v>170017885</v>
       </c>
-      <c r="B11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="b">
+      <c r="B11" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -394,13 +424,16 @@
       <c r="A12" s="1" t="n">
         <v>160037522</v>
       </c>
-      <c r="B12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="b">
+      <c r="B12" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -408,13 +441,16 @@
       <c r="A13" s="1" t="n">
         <v>160015006</v>
       </c>
-      <c r="B13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="b">
+      <c r="B13" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -436,14 +472,14 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.21"/>
   </cols>
   <sheetData>
@@ -466,10 +502,12 @@
         <v>150132590</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="b">
+      <c r="C2" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -477,7 +515,8 @@
       <c r="A3" s="1" t="n">
         <v>160010331</v>
       </c>
-      <c r="D3" s="2" t="b">
+      <c r="D3" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -485,10 +524,12 @@
       <c r="A4" s="1" t="n">
         <v>180033646</v>
       </c>
-      <c r="C4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="b">
+      <c r="C4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -496,10 +537,12 @@
       <c r="A5" s="1" t="n">
         <v>160049733</v>
       </c>
-      <c r="B5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="b">
+      <c r="B5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -507,13 +550,16 @@
       <c r="A6" s="1" t="n">
         <v>140133305</v>
       </c>
-      <c r="B6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="b">
+      <c r="B6" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -521,13 +567,16 @@
       <c r="A7" s="1" t="n">
         <v>150058462</v>
       </c>
-      <c r="B7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="b">
+      <c r="B7" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -535,10 +584,12 @@
       <c r="A8" s="1" t="n">
         <v>170013651</v>
       </c>
-      <c r="B8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="b">
+      <c r="B8" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -547,10 +598,12 @@
         <v>180052845</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="b">
+      <c r="C9" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -558,13 +611,16 @@
       <c r="A10" s="1" t="n">
         <v>160120918</v>
       </c>
-      <c r="B10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="b">
+      <c r="B10" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -572,13 +628,16 @@
       <c r="A11" s="1" t="n">
         <v>180017659</v>
       </c>
-      <c r="B11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="b">
+      <c r="B11" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -587,10 +646,12 @@
         <v>180020251</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="b">
+      <c r="C12" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -598,7 +659,8 @@
       <c r="A13" s="1" t="n">
         <v>190106565</v>
       </c>
-      <c r="C13" s="2" t="b">
+      <c r="C13" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -606,10 +668,12 @@
       <c r="A14" s="1" t="n">
         <v>180020471</v>
       </c>
-      <c r="B14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="b">
+      <c r="B14" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -617,10 +681,12 @@
       <c r="A15" s="1" t="n">
         <v>150062567</v>
       </c>
-      <c r="B15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="b">
+      <c r="B15" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -629,10 +695,12 @@
         <v>170017885</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="b">
+      <c r="C16" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -640,7 +708,12 @@
       <c r="A17" s="1" t="n">
         <v>150141220</v>
       </c>
-      <c r="B17" s="2" t="b">
+      <c r="B17" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -648,13 +721,16 @@
       <c r="A18" s="1" t="n">
         <v>160037522</v>
       </c>
-      <c r="B18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="b">
+      <c r="B18" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -662,7 +738,8 @@
       <c r="A19" s="1" t="n">
         <v>160015006</v>
       </c>
-      <c r="D19" s="2" t="b">
+      <c r="D19" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -670,7 +747,8 @@
       <c r="A20" s="1" t="n">
         <v>160143403</v>
       </c>
-      <c r="C20" s="2" t="b">
+      <c r="C20" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -678,10 +756,12 @@
       <c r="A21" s="1" t="n">
         <v>150147601</v>
       </c>
-      <c r="C21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="b">
+      <c r="C21" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -689,10 +769,12 @@
       <c r="A22" s="1" t="n">
         <v>160144752</v>
       </c>
-      <c r="B22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="b">
+      <c r="B22" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -700,14 +782,15 @@
       <c r="A23" s="1" t="n">
         <v>150149301</v>
       </c>
-      <c r="D23" s="2" t="b">
+      <c r="D23" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
@@ -720,17 +803,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.21"/>
@@ -764,13 +847,16 @@
       <c r="A2" s="1" t="n">
         <v>150132590</v>
       </c>
-      <c r="B2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="b">
+      <c r="B2" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E2" s="2"/>
@@ -781,30 +867,47 @@
       <c r="A3" s="1" t="n">
         <v>160010331</v>
       </c>
-      <c r="E3" s="2" t="b">
-        <v>0</v>
+      <c r="B3" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>180033646</v>
       </c>
-      <c r="B4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="b">
+      <c r="B4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -812,22 +915,28 @@
       <c r="A5" s="1" t="n">
         <v>160049733</v>
       </c>
-      <c r="B5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="b">
+      <c r="B5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -835,10 +944,12 @@
       <c r="A6" s="1" t="n">
         <v>140133305</v>
       </c>
-      <c r="C6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="b">
+      <c r="C6" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -846,22 +957,28 @@
       <c r="A7" s="1" t="n">
         <v>170139981</v>
       </c>
-      <c r="B7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="b">
+      <c r="B7" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -869,22 +986,28 @@
       <c r="A8" s="1" t="n">
         <v>150058462</v>
       </c>
-      <c r="B8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="b">
+      <c r="B8" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -892,19 +1015,24 @@
       <c r="A9" s="1" t="n">
         <v>170033066</v>
       </c>
-      <c r="C9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="b">
+      <c r="C9" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -912,22 +1040,28 @@
       <c r="A10" s="1" t="n">
         <v>170013651</v>
       </c>
-      <c r="B10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="b">
+      <c r="B10" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -935,22 +1069,28 @@
       <c r="A11" s="1" t="n">
         <v>180052845</v>
       </c>
-      <c r="B11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="b">
+      <c r="B11" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -958,22 +1098,28 @@
       <c r="A12" s="1" t="n">
         <v>160120918</v>
       </c>
-      <c r="B12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2" t="b">
+      <c r="B12" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -981,22 +1127,28 @@
       <c r="A13" s="1" t="n">
         <v>180017659</v>
       </c>
-      <c r="B13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="b">
+      <c r="B13" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1004,22 +1156,28 @@
       <c r="A14" s="1" t="n">
         <v>180020251</v>
       </c>
-      <c r="B14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="b">
+      <c r="B14" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1027,22 +1185,28 @@
       <c r="A15" s="1" t="n">
         <v>190106565</v>
       </c>
-      <c r="B15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2" t="b">
+      <c r="B15" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1050,22 +1214,28 @@
       <c r="A16" s="1" t="n">
         <v>150062567</v>
       </c>
-      <c r="B16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="b">
+      <c r="B16" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1073,22 +1243,28 @@
       <c r="A17" s="1" t="n">
         <v>170017885</v>
       </c>
-      <c r="B17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2" t="b">
+      <c r="B17" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1096,14 +1272,21 @@
       <c r="A18" s="1" t="n">
         <v>150141220</v>
       </c>
-      <c r="B18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="b">
+      <c r="B18" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2" t="b">
+      <c r="F18" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1111,22 +1294,28 @@
       <c r="A19" s="1" t="n">
         <v>160037522</v>
       </c>
-      <c r="B19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2" t="b">
+      <c r="B19" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1134,22 +1323,28 @@
       <c r="A20" s="1" t="n">
         <v>160015006</v>
       </c>
-      <c r="B20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2" t="b">
+      <c r="B20" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1157,22 +1352,28 @@
       <c r="A21" s="1" t="n">
         <v>170062686</v>
       </c>
-      <c r="B21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2" t="b">
+      <c r="B21" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1180,19 +1381,24 @@
       <c r="A22" s="1" t="n">
         <v>170020461</v>
       </c>
-      <c r="C22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="b">
+      <c r="C22" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1200,19 +1406,24 @@
       <c r="A23" s="1" t="n">
         <v>160143403</v>
       </c>
-      <c r="B23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2" t="b">
+      <c r="B23" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1220,16 +1431,20 @@
       <c r="A24" s="1" t="n">
         <v>150147601</v>
       </c>
-      <c r="B24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2" t="b">
+      <c r="B24" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1237,26 +1452,47 @@
       <c r="A25" s="1" t="n">
         <v>150149301</v>
       </c>
-      <c r="B25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2" t="b">
+      <c r="B25" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>160144752</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
@@ -1275,14 +1511,14 @@
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="10.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.74"/>
   </cols>
@@ -1291,31 +1527,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1324,12 +1560,14 @@
         <v>150132590</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2" t="b">
+      <c r="E2" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="2" t="b">
+      <c r="I2" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1337,13 +1575,16 @@
       <c r="A3" s="1" t="n">
         <v>180033646</v>
       </c>
-      <c r="E3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="b">
+      <c r="E3" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1351,7 +1592,8 @@
       <c r="A4" s="1" t="n">
         <v>160049733</v>
       </c>
-      <c r="B4" s="2" t="b">
+      <c r="B4" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1359,16 +1601,20 @@
       <c r="A5" s="1" t="n">
         <v>140133305</v>
       </c>
-      <c r="E5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2" t="b">
+      <c r="E5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1376,10 +1622,12 @@
       <c r="A6" s="1" t="n">
         <v>170139981</v>
       </c>
-      <c r="E6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2" t="b">
+      <c r="E6" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1388,10 +1636,12 @@
         <v>150058462</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="E7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="b">
+      <c r="E7" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1399,7 +1649,8 @@
       <c r="A8" s="1" t="n">
         <v>170033066</v>
       </c>
-      <c r="E8" s="2" t="b">
+      <c r="E8" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1407,13 +1658,16 @@
       <c r="A9" s="1" t="n">
         <v>170013651</v>
       </c>
-      <c r="E9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2" t="b">
+      <c r="E9" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1421,13 +1675,16 @@
       <c r="A10" s="1" t="n">
         <v>180052845</v>
       </c>
-      <c r="E10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2" t="b">
+      <c r="E10" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1435,10 +1692,12 @@
       <c r="A11" s="1" t="n">
         <v>160120918</v>
       </c>
-      <c r="F11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2" t="b">
+      <c r="F11" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1446,13 +1705,16 @@
       <c r="A12" s="1" t="n">
         <v>180017659</v>
       </c>
-      <c r="E12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2" t="b">
+      <c r="E12" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1460,13 +1722,16 @@
       <c r="A13" s="1" t="n">
         <v>180020251</v>
       </c>
-      <c r="E13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2" t="b">
+      <c r="E13" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1474,10 +1739,12 @@
       <c r="A14" s="1" t="n">
         <v>190106565</v>
       </c>
-      <c r="E14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="b">
+      <c r="E14" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K14" s="1"/>
@@ -1486,13 +1753,16 @@
       <c r="A15" s="1" t="n">
         <v>180020471</v>
       </c>
-      <c r="E15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2" t="b">
+      <c r="E15" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1500,10 +1770,12 @@
       <c r="A16" s="1" t="n">
         <v>150062567</v>
       </c>
-      <c r="E16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2" t="b">
+      <c r="E16" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1511,13 +1783,16 @@
       <c r="A17" s="1" t="n">
         <v>170017885</v>
       </c>
-      <c r="E17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2" t="b">
+      <c r="E17" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1525,16 +1800,20 @@
       <c r="A18" s="1" t="n">
         <v>150141220</v>
       </c>
-      <c r="E18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2" t="b">
+      <c r="E18" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1542,19 +1821,24 @@
       <c r="A19" s="1" t="n">
         <v>160037522</v>
       </c>
-      <c r="E19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2" t="b">
+      <c r="E19" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1562,13 +1846,16 @@
       <c r="A20" s="1" t="n">
         <v>160015006</v>
       </c>
-      <c r="E20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2" t="b">
+      <c r="E20" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1576,13 +1863,16 @@
       <c r="A21" s="1" t="n">
         <v>170062686</v>
       </c>
-      <c r="E21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2" t="b">
+      <c r="E21" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1590,13 +1880,16 @@
       <c r="A22" s="1" t="n">
         <v>170020461</v>
       </c>
-      <c r="E22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2" t="b">
+      <c r="E22" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1604,10 +1897,12 @@
       <c r="A23" s="1" t="n">
         <v>160143403</v>
       </c>
-      <c r="E23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2" t="b">
+      <c r="E23" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1615,16 +1910,20 @@
       <c r="A24" s="1" t="n">
         <v>150147601</v>
       </c>
-      <c r="B24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="2" t="b">
+      <c r="B24" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1632,17 +1931,19 @@
       <c r="A25" s="1" t="n">
         <v>160144752</v>
       </c>
-      <c r="E25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2" t="b">
+      <c r="E25" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
@@ -1661,16 +1962,16 @@
       <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.32"/>
@@ -1715,16 +2016,20 @@
       <c r="A2" s="1" t="n">
         <v>150132590</v>
       </c>
-      <c r="C2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="b">
+      <c r="C2" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1732,10 +2037,12 @@
       <c r="A3" s="1" t="n">
         <v>160010331</v>
       </c>
-      <c r="E3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="b">
+      <c r="E3" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1743,13 +2050,16 @@
       <c r="A4" s="1" t="n">
         <v>180033646</v>
       </c>
-      <c r="C4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="b">
+      <c r="C4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1757,13 +2067,16 @@
       <c r="A5" s="1" t="n">
         <v>160049733</v>
       </c>
-      <c r="B5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="b">
+      <c r="B5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1771,14 +2084,17 @@
       <c r="A6" s="1" t="n">
         <v>140133305</v>
       </c>
-      <c r="C6" s="2" t="b">
+      <c r="C6" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="b">
+      <c r="E6" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1786,10 +2102,12 @@
       <c r="A7" s="1" t="n">
         <v>170139981</v>
       </c>
-      <c r="E7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="b">
+      <c r="E7" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1797,13 +2115,16 @@
       <c r="A8" s="1" t="n">
         <v>150058462</v>
       </c>
-      <c r="C8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="b">
+      <c r="C8" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1811,10 +2132,12 @@
       <c r="A9" s="1" t="n">
         <v>170033066</v>
       </c>
-      <c r="E9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="b">
+      <c r="E9" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1822,13 +2145,16 @@
       <c r="A10" s="1" t="n">
         <v>170013651</v>
       </c>
-      <c r="C10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="b">
+      <c r="C10" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1836,13 +2162,16 @@
       <c r="A11" s="1" t="n">
         <v>180052845</v>
       </c>
-      <c r="C11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="b">
+      <c r="C11" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1850,13 +2179,16 @@
       <c r="A12" s="1" t="n">
         <v>160120918</v>
       </c>
-      <c r="C12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="b">
+      <c r="C12" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1864,13 +2196,16 @@
       <c r="A13" s="1" t="n">
         <v>180017659</v>
       </c>
-      <c r="C13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="b">
+      <c r="C13" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1878,13 +2213,16 @@
       <c r="A14" s="1" t="n">
         <v>180020251</v>
       </c>
-      <c r="C14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="b">
+      <c r="C14" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1892,13 +2230,16 @@
       <c r="A15" s="1" t="n">
         <v>190106565</v>
       </c>
-      <c r="C15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="b">
+      <c r="C15" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1906,13 +2247,16 @@
       <c r="A16" s="1" t="n">
         <v>180020471</v>
       </c>
-      <c r="C16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="b">
+      <c r="C16" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1920,13 +2264,16 @@
       <c r="A17" s="1" t="n">
         <v>170017885</v>
       </c>
-      <c r="C17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="b">
+      <c r="C17" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1934,16 +2281,20 @@
       <c r="A18" s="1" t="n">
         <v>150141220</v>
       </c>
-      <c r="B18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="b">
+      <c r="B18" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1951,13 +2302,16 @@
       <c r="A19" s="1" t="n">
         <v>160037522</v>
       </c>
-      <c r="C19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="b">
+      <c r="C19" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1965,13 +2319,16 @@
       <c r="A20" s="1" t="n">
         <v>160015006</v>
       </c>
-      <c r="C20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="b">
+      <c r="C20" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1979,10 +2336,12 @@
       <c r="A21" s="1" t="n">
         <v>170062686</v>
       </c>
-      <c r="E21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="b">
+      <c r="E21" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1990,10 +2349,12 @@
       <c r="A22" s="1" t="n">
         <v>170020461</v>
       </c>
-      <c r="E22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="b">
+      <c r="E22" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2001,10 +2362,12 @@
       <c r="A23" s="1" t="n">
         <v>160143403</v>
       </c>
-      <c r="E23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2" t="b">
+      <c r="E23" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2012,13 +2375,16 @@
       <c r="A24" s="1" t="n">
         <v>150147601</v>
       </c>
-      <c r="C24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2" t="b">
+      <c r="C24" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2026,20 +2392,23 @@
       <c r="A25" s="1" t="n">
         <v>160144752</v>
       </c>
-      <c r="C25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2" t="b">
+      <c r="C25" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
@@ -2058,10 +2427,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="9.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="9.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2079,18 +2448,19 @@
       <c r="A2" s="1" t="n">
         <v>180020471</v>
       </c>
-      <c r="B2" s="2" t="b">
+      <c r="B2" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0"/>
+      <c r="A3" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
